--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H2">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I2">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J2">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N2">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O2">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P2">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q2">
-        <v>13.62270492194704</v>
+        <v>14.3512041389325</v>
       </c>
       <c r="R2">
-        <v>13.62270492194704</v>
+        <v>57.40481655572999</v>
       </c>
       <c r="S2">
-        <v>0.06339988095814877</v>
+        <v>0.05437573107603342</v>
       </c>
       <c r="T2">
-        <v>0.06339988095814877</v>
+        <v>0.03263060383589263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H3">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I3">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J3">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N3">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O3">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P3">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q3">
-        <v>14.5302110885514</v>
+        <v>16.95837484104866</v>
       </c>
       <c r="R3">
-        <v>14.5302110885514</v>
+        <v>101.750249046292</v>
       </c>
       <c r="S3">
-        <v>0.06762340215024393</v>
+        <v>0.06425412257511268</v>
       </c>
       <c r="T3">
-        <v>0.06762340215024393</v>
+        <v>0.05783786563640809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H4">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I4">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J4">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N4">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O4">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P4">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q4">
-        <v>6.704765814919114</v>
+        <v>7.162237724728334</v>
       </c>
       <c r="R4">
-        <v>6.704765814919114</v>
+        <v>42.97342634837</v>
       </c>
       <c r="S4">
-        <v>0.03120388769731806</v>
+        <v>0.0271372289497248</v>
       </c>
       <c r="T4">
-        <v>0.03120388769731806</v>
+        <v>0.02442737273244719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H5">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I5">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J5">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N5">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O5">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P5">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q5">
-        <v>9.817370202900069</v>
+        <v>10.164214413878</v>
       </c>
       <c r="R5">
-        <v>9.817370202900069</v>
+        <v>60.98528648326801</v>
       </c>
       <c r="S5">
-        <v>0.04568990562095955</v>
+        <v>0.03851151333488619</v>
       </c>
       <c r="T5">
-        <v>0.04568990562095955</v>
+        <v>0.03466584935642131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H6">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I6">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J6">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N6">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O6">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P6">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q6">
-        <v>7.922542785686463</v>
+        <v>8.693482328752667</v>
       </c>
       <c r="R6">
-        <v>7.922542785686463</v>
+        <v>52.16089397251601</v>
       </c>
       <c r="S6">
-        <v>0.03687140493582476</v>
+        <v>0.03293901004028685</v>
       </c>
       <c r="T6">
-        <v>0.03687140493582476</v>
+        <v>0.02964980238706601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H7">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I7">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J7">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N7">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O7">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P7">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q7">
-        <v>13.16359952071292</v>
+        <v>15.459692019156</v>
       </c>
       <c r="R7">
-        <v>13.16359952071292</v>
+        <v>61.838768076624</v>
       </c>
       <c r="S7">
-        <v>0.06126321074821178</v>
+        <v>0.05857571585031167</v>
       </c>
       <c r="T7">
-        <v>0.06126321074821178</v>
+        <v>0.03515099366007027</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H8">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I8">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J8">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N8">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O8">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P8">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q8">
-        <v>9.316218046073871</v>
+        <v>10.56387492545</v>
       </c>
       <c r="R8">
-        <v>9.316218046073871</v>
+        <v>63.3832495527</v>
       </c>
       <c r="S8">
-        <v>0.04335755038998687</v>
+        <v>0.04002579968246828</v>
       </c>
       <c r="T8">
-        <v>0.04335755038998687</v>
+        <v>0.0360289228339887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H9">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I9">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J9">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N9">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O9">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P9">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q9">
-        <v>9.936838207391618</v>
+        <v>12.48300484234222</v>
       </c>
       <c r="R9">
-        <v>9.936838207391618</v>
+        <v>112.34704358108</v>
       </c>
       <c r="S9">
-        <v>0.04624590806735104</v>
+        <v>0.04729725169796892</v>
       </c>
       <c r="T9">
-        <v>0.04624590806735104</v>
+        <v>0.06386139859307782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H10">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I10">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J10">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N10">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O10">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P10">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q10">
-        <v>4.585217153093929</v>
+        <v>5.272100011811112</v>
       </c>
       <c r="R10">
-        <v>4.585217153093929</v>
+        <v>47.44890010630001</v>
       </c>
       <c r="S10">
-        <v>0.02133953743687697</v>
+        <v>0.01997562641245501</v>
       </c>
       <c r="T10">
-        <v>0.02133953743687697</v>
+        <v>0.0269713650302219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H11">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I11">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J11">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N11">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O11">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P11">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q11">
-        <v>6.713847358015989</v>
+        <v>7.481845338146668</v>
       </c>
       <c r="R11">
-        <v>6.713847358015989</v>
+        <v>67.33660804332001</v>
       </c>
       <c r="S11">
-        <v>0.03124615307372876</v>
+        <v>0.02834820034061611</v>
       </c>
       <c r="T11">
-        <v>0.03124615307372876</v>
+        <v>0.03827612929624517</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H12">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I12">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J12">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N12">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O12">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P12">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q12">
-        <v>5.418023549192131</v>
+        <v>6.39924420964889</v>
       </c>
       <c r="R12">
-        <v>5.418023549192131</v>
+        <v>57.59319788684</v>
       </c>
       <c r="S12">
-        <v>0.0252154069265513</v>
+        <v>0.0242462986983624</v>
       </c>
       <c r="T12">
-        <v>0.0252154069265513</v>
+        <v>0.03273768538330183</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H13">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I13">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J13">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N13">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O13">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P13">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q13">
-        <v>9.002247652636328</v>
+        <v>11.37982926696</v>
       </c>
       <c r="R13">
-        <v>9.002247652636328</v>
+        <v>68.27897560176</v>
       </c>
       <c r="S13">
-        <v>0.04189633650607942</v>
+        <v>0.04311739488345258</v>
       </c>
       <c r="T13">
-        <v>0.04189633650607942</v>
+        <v>0.03881179902419213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H14">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I14">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J14">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N14">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O14">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P14">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q14">
-        <v>5.59310915405427</v>
+        <v>2.68363767075</v>
       </c>
       <c r="R14">
-        <v>5.59310915405427</v>
+        <v>16.1018260245</v>
       </c>
       <c r="S14">
-        <v>0.0260302529185438</v>
+        <v>0.01016811961404301</v>
       </c>
       <c r="T14">
-        <v>0.0260302529185438</v>
+        <v>0.009152756468263294</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H15">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I15">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J15">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N15">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O15">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P15">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q15">
-        <v>5.96570630541869</v>
+        <v>3.171171778866666</v>
       </c>
       <c r="R15">
-        <v>5.96570630541869</v>
+        <v>28.5405460098</v>
       </c>
       <c r="S15">
-        <v>0.02776431492584693</v>
+        <v>0.0120153530097013</v>
       </c>
       <c r="T15">
-        <v>0.02776431492584693</v>
+        <v>0.01622329459413438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H16">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I16">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J16">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N16">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O16">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P16">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q16">
-        <v>2.752793022390038</v>
+        <v>1.339319737833333</v>
       </c>
       <c r="R16">
-        <v>2.752793022390038</v>
+        <v>12.0538776405</v>
       </c>
       <c r="S16">
-        <v>0.01281146078711412</v>
+        <v>0.00507459089733679</v>
       </c>
       <c r="T16">
-        <v>0.01281146078711412</v>
+        <v>0.006851782299341206</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H17">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I17">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J17">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N17">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O17">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P17">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q17">
-        <v>4.030743047375058</v>
+        <v>1.9006815338</v>
       </c>
       <c r="R17">
-        <v>4.030743047375058</v>
+        <v>17.1061338042</v>
       </c>
       <c r="S17">
-        <v>0.01875902259064274</v>
+        <v>0.007201552353555972</v>
       </c>
       <c r="T17">
-        <v>0.01875902259064274</v>
+        <v>0.009723634858875006</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H18">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I18">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J18">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N18">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O18">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P18">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q18">
-        <v>3.252778859404105</v>
+        <v>1.625658477266667</v>
       </c>
       <c r="R18">
-        <v>3.252778859404105</v>
+        <v>14.6309262954</v>
       </c>
       <c r="S18">
-        <v>0.01513838798175541</v>
+        <v>0.006159508799789225</v>
       </c>
       <c r="T18">
-        <v>0.01513838798175541</v>
+        <v>0.00831665334621973</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H19">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I19">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J19">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N19">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O19">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P19">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q19">
-        <v>5.404613063371033</v>
+        <v>2.8909220076</v>
       </c>
       <c r="R19">
-        <v>5.404613063371033</v>
+        <v>17.3455320456</v>
       </c>
       <c r="S19">
-        <v>0.02515299471036369</v>
+        <v>0.01095350579123858</v>
       </c>
       <c r="T19">
-        <v>0.02515299471036369</v>
+        <v>0.009859715934346243</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.95387430571397</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H20">
-        <v>1.95387430571397</v>
+        <v>4.562099</v>
       </c>
       <c r="I20">
-        <v>0.1934337082163166</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J20">
-        <v>0.1934337082163166</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N20">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O20">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P20">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q20">
-        <v>8.609951837925808</v>
+        <v>6.955866561042499</v>
       </c>
       <c r="R20">
-        <v>8.609951837925808</v>
+        <v>41.735199366255</v>
       </c>
       <c r="S20">
-        <v>0.04007059719105122</v>
+        <v>0.02635530272320094</v>
       </c>
       <c r="T20">
-        <v>0.04007059719105122</v>
+        <v>0.02372352771496364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.95387430571397</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H21">
-        <v>1.95387430571397</v>
+        <v>4.562099</v>
       </c>
       <c r="I21">
-        <v>0.1934337082163166</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J21">
-        <v>0.1934337082163166</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N21">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O21">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P21">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q21">
-        <v>9.183522537126377</v>
+        <v>8.21953275450022</v>
       </c>
       <c r="R21">
-        <v>9.183522537126377</v>
+        <v>73.97579479050198</v>
       </c>
       <c r="S21">
-        <v>0.04273998732015936</v>
+        <v>0.03114324751446241</v>
       </c>
       <c r="T21">
-        <v>0.04273998732015936</v>
+        <v>0.04205004036395991</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.95387430571397</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H22">
-        <v>1.95387430571397</v>
+        <v>4.562099</v>
       </c>
       <c r="I22">
-        <v>0.1934337082163166</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J22">
-        <v>0.1934337082163166</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N22">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O22">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P22">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q22">
-        <v>4.237610010771207</v>
+        <v>3.471455733566111</v>
       </c>
       <c r="R22">
-        <v>4.237610010771207</v>
+        <v>31.243101602095</v>
       </c>
       <c r="S22">
-        <v>0.01972177858724074</v>
+        <v>0.01315310837915418</v>
       </c>
       <c r="T22">
-        <v>0.01972177858724074</v>
+        <v>0.01775950751436976</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.95387430571397</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H23">
-        <v>1.95387430571397</v>
+        <v>4.562099</v>
       </c>
       <c r="I23">
-        <v>0.1934337082163166</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J23">
-        <v>0.1934337082163166</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N23">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O23">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P23">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q23">
-        <v>6.204867910328075</v>
+        <v>4.926479929928666</v>
       </c>
       <c r="R23">
-        <v>6.204867910328075</v>
+        <v>44.338319369358</v>
       </c>
       <c r="S23">
-        <v>0.02887736973896166</v>
+        <v>0.01866609555741454</v>
       </c>
       <c r="T23">
-        <v>0.02887736973896166</v>
+        <v>0.02520321849101688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.95387430571397</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H24">
-        <v>1.95387430571397</v>
+        <v>4.562099</v>
       </c>
       <c r="I24">
-        <v>0.1934337082163166</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J24">
-        <v>0.1934337082163166</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N24">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O24">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P24">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q24">
-        <v>5.007281021610622</v>
+        <v>4.213632698982889</v>
       </c>
       <c r="R24">
-        <v>5.007281021610622</v>
+        <v>37.922694290846</v>
       </c>
       <c r="S24">
-        <v>0.02330381686405476</v>
+        <v>0.01596516614738346</v>
       </c>
       <c r="T24">
-        <v>0.02330381686405476</v>
+        <v>0.02155638652016117</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.95387430571397</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H25">
-        <v>1.95387430571397</v>
+        <v>4.562099</v>
       </c>
       <c r="I25">
-        <v>0.1934337082163166</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J25">
-        <v>0.1934337082163166</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N25">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O25">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P25">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q25">
-        <v>8.319783665319424</v>
+        <v>7.493138117123999</v>
       </c>
       <c r="R25">
-        <v>8.319783665319424</v>
+        <v>44.958828702744</v>
       </c>
       <c r="S25">
-        <v>0.03872015851484895</v>
+        <v>0.02839098790790509</v>
       </c>
       <c r="T25">
-        <v>0.03872015851484895</v>
+        <v>0.02555593443802344</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.67229437682485</v>
+        <v>2.103366333333333</v>
       </c>
       <c r="H26">
-        <v>1.67229437682485</v>
+        <v>6.310099</v>
       </c>
       <c r="I26">
-        <v>0.1655572733581356</v>
+        <v>0.1848919970051482</v>
       </c>
       <c r="J26">
-        <v>0.1655572733581356</v>
+        <v>0.2155630971469562</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N26">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O26">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P26">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q26">
-        <v>7.369140379802867</v>
+        <v>9.621055271042499</v>
       </c>
       <c r="R26">
-        <v>7.369140379802867</v>
+        <v>57.726331626255</v>
       </c>
       <c r="S26">
-        <v>0.03429587776585369</v>
+        <v>0.03645352048659346</v>
       </c>
       <c r="T26">
-        <v>0.03429587776585369</v>
+        <v>0.03281336255759999</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.67229437682485</v>
+        <v>2.103366333333333</v>
       </c>
       <c r="H27">
-        <v>1.67229437682485</v>
+        <v>6.310099</v>
       </c>
       <c r="I27">
-        <v>0.1655572733581356</v>
+        <v>0.1848919970051482</v>
       </c>
       <c r="J27">
-        <v>0.1655572733581356</v>
+        <v>0.2155630971469562</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N27">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O27">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P27">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q27">
-        <v>7.860051720506595</v>
+        <v>11.36890396605578</v>
       </c>
       <c r="R27">
-        <v>7.860051720506595</v>
+        <v>102.320135694502</v>
       </c>
       <c r="S27">
-        <v>0.03658057237973168</v>
+        <v>0.04307599966545263</v>
       </c>
       <c r="T27">
-        <v>0.03658057237973168</v>
+        <v>0.05816180614462402</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.67229437682485</v>
+        <v>2.103366333333333</v>
       </c>
       <c r="H28">
-        <v>1.67229437682485</v>
+        <v>6.310099</v>
       </c>
       <c r="I28">
-        <v>0.1655572733581356</v>
+        <v>0.1848919970051482</v>
       </c>
       <c r="J28">
-        <v>0.1655572733581356</v>
+        <v>0.2155630971469562</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N28">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O28">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P28">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q28">
-        <v>3.626912627626716</v>
+        <v>4.801568171343889</v>
       </c>
       <c r="R28">
-        <v>3.626912627626716</v>
+        <v>43.21411354209501</v>
       </c>
       <c r="S28">
-        <v>0.01687960138273884</v>
+        <v>0.01819281344622123</v>
       </c>
       <c r="T28">
-        <v>0.01687960138273884</v>
+        <v>0.0245641864867284</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.67229437682485</v>
+        <v>2.103366333333333</v>
       </c>
       <c r="H29">
-        <v>1.67229437682485</v>
+        <v>6.310099</v>
       </c>
       <c r="I29">
-        <v>0.1655572733581356</v>
+        <v>0.1848919970051482</v>
       </c>
       <c r="J29">
-        <v>0.1655572733581356</v>
+        <v>0.2155630971469562</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N29">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O29">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P29">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q29">
-        <v>5.310661839933938</v>
+        <v>6.814095020595333</v>
       </c>
       <c r="R29">
-        <v>5.310661839933938</v>
+        <v>61.32685518535801</v>
       </c>
       <c r="S29">
-        <v>0.02471574701132648</v>
+        <v>0.02581814005148638</v>
       </c>
       <c r="T29">
-        <v>0.02471574701132648</v>
+        <v>0.03486000715831618</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.67229437682485</v>
+        <v>2.103366333333333</v>
       </c>
       <c r="H30">
-        <v>1.67229437682485</v>
+        <v>6.310099</v>
       </c>
       <c r="I30">
-        <v>0.1655572733581356</v>
+        <v>0.1848919970051482</v>
       </c>
       <c r="J30">
-        <v>0.1655572733581356</v>
+        <v>0.2155630971469562</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N30">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O30">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P30">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q30">
-        <v>4.285663551198294</v>
+        <v>5.828115409205111</v>
       </c>
       <c r="R30">
-        <v>4.285663551198294</v>
+        <v>52.45303868284601</v>
       </c>
       <c r="S30">
-        <v>0.01994541910211283</v>
+        <v>0.02208233073009555</v>
       </c>
       <c r="T30">
-        <v>0.01994541910211283</v>
+        <v>0.02981586612313379</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H31">
+        <v>6.310099</v>
+      </c>
+      <c r="I31">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J31">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.927428</v>
+      </c>
+      <c r="N31">
+        <v>9.854856</v>
+      </c>
+      <c r="O31">
+        <v>0.2123898992999982</v>
+      </c>
+      <c r="P31">
+        <v>0.1639792206754944</v>
+      </c>
+      <c r="Q31">
+        <v>10.364186165124</v>
+      </c>
+      <c r="R31">
+        <v>62.185116990744</v>
+      </c>
+      <c r="S31">
+        <v>0.03926919262529902</v>
+      </c>
+      <c r="T31">
+        <v>0.03534786867655377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.7184595</v>
+      </c>
+      <c r="H32">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J32">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.5741225</v>
+      </c>
+      <c r="N32">
+        <v>9.148244999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.1971611593636388</v>
+      </c>
+      <c r="P32">
+        <v>0.1522216139584879</v>
+      </c>
+      <c r="Q32">
+        <v>7.86044426428875</v>
+      </c>
+      <c r="R32">
+        <v>31.441777057155</v>
+      </c>
+      <c r="S32">
+        <v>0.02978268578129971</v>
+      </c>
+      <c r="T32">
+        <v>0.01787244054777968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.7184595</v>
+      </c>
+      <c r="H33">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J33">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.405099333333332</v>
+      </c>
+      <c r="N33">
+        <v>16.215298</v>
+      </c>
+      <c r="O33">
+        <v>0.2329792547172996</v>
+      </c>
+      <c r="P33">
+        <v>0.2698133721143062</v>
+      </c>
+      <c r="Q33">
+        <v>9.288444297810333</v>
+      </c>
+      <c r="R33">
+        <v>55.730665786862</v>
+      </c>
+      <c r="S33">
+        <v>0.03519328025460167</v>
+      </c>
+      <c r="T33">
+        <v>0.031678966782102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.7184595</v>
+      </c>
+      <c r="H34">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J34">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.282801666666667</v>
+      </c>
+      <c r="N34">
+        <v>6.848405000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.09839697629375843</v>
+      </c>
+      <c r="P34">
+        <v>0.1139535793085317</v>
+      </c>
+      <c r="Q34">
+        <v>3.922902210699168</v>
+      </c>
+      <c r="R34">
+        <v>23.53741326419501</v>
+      </c>
+      <c r="S34">
+        <v>0.01486360820886643</v>
+      </c>
+      <c r="T34">
+        <v>0.01337936524542326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.7184595</v>
+      </c>
+      <c r="H35">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J35">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.239614</v>
+      </c>
+      <c r="N35">
+        <v>9.718842</v>
+      </c>
+      <c r="O35">
+        <v>0.1396390350565984</v>
+      </c>
+      <c r="P35">
+        <v>0.1617160247727885</v>
+      </c>
+      <c r="Q35">
+        <v>5.567145454633001</v>
+      </c>
+      <c r="R35">
+        <v>33.40287272779801</v>
+      </c>
+      <c r="S35">
+        <v>0.0210935334186392</v>
+      </c>
+      <c r="T35">
+        <v>0.018987185611914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="H31">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="I31">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="J31">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.25809564156138</v>
-      </c>
-      <c r="N31">
-        <v>4.25809564156138</v>
-      </c>
-      <c r="O31">
-        <v>0.2001727561958759</v>
-      </c>
-      <c r="P31">
-        <v>0.2001727561958759</v>
-      </c>
-      <c r="Q31">
-        <v>7.120789397365497</v>
-      </c>
-      <c r="R31">
-        <v>7.120789397365497</v>
-      </c>
-      <c r="S31">
-        <v>0.03314005571637205</v>
-      </c>
-      <c r="T31">
-        <v>0.03314005571637205</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.7184595</v>
+      </c>
+      <c r="H36">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J36">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.770851333333333</v>
+      </c>
+      <c r="N36">
+        <v>8.312554</v>
+      </c>
+      <c r="O36">
+        <v>0.1194336752687066</v>
+      </c>
+      <c r="P36">
+        <v>0.1383161891703911</v>
+      </c>
+      <c r="Q36">
+        <v>4.761595796854334</v>
+      </c>
+      <c r="R36">
+        <v>28.569574781126</v>
+      </c>
+      <c r="S36">
+        <v>0.01804136085278915</v>
+      </c>
+      <c r="T36">
+        <v>0.01623979541050859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.7184595</v>
+      </c>
+      <c r="H37">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J37">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.927428</v>
+      </c>
+      <c r="N37">
+        <v>9.854856</v>
+      </c>
+      <c r="O37">
+        <v>0.2123898992999982</v>
+      </c>
+      <c r="P37">
+        <v>0.1639792206754944</v>
+      </c>
+      <c r="Q37">
+        <v>8.467585457166001</v>
+      </c>
+      <c r="R37">
+        <v>33.870341828664</v>
+      </c>
+      <c r="S37">
+        <v>0.03208310224179131</v>
+      </c>
+      <c r="T37">
+        <v>0.01925290894230859</v>
       </c>
     </row>
   </sheetData>
